--- a/peer95.xlsx
+++ b/peer95.xlsx
@@ -1,48 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1B41D6121C862B19733211C7EA0D6ADEA2FF82B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E2700A-9FE0-4948-B86C-1BA3BD24AE96}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>V1</t>
+    <t xml:space="preserve">V1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,15 +58,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -368,22 +339,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A98"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>